--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -14,25 +14,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>备案序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品料号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元统计总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
+    <t>EYYW345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG3563</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,80 +435,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="17.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>2</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>9</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -14,85 +14,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>备案序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品料号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EYYW345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG3563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账册备案料号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商品编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商品规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报计量单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>币制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美元统计总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定计量单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法定数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二法定数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二法定计量单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EYYW345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG3563</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲律宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马来西亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原产国(地区)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +175,57 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,16 +233,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -435,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -446,69 +590,134 @@
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9" style="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
     <col min="12" max="12" width="17.875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>53</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菲律宾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马来西亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,13 +138,48 @@
   <si>
     <t>原产国(地区)</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>千克</t>
+  </si>
+  <si>
+    <t>千克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +220,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -258,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
@@ -273,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -579,25 +608,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="1"/>
     <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="17.875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="9" max="11" width="17.625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="17.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -626,19 +656,25 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,34 +688,40 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -693,32 +735,41 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,31 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EYYW345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG3563</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>账册备案料号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -88,98 +64,143 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原产国(地区)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>毛重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101210010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101210090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101290010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般野马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好野马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好种马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>千克</t>
-  </si>
-  <si>
-    <t>千克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65698.459862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45986.598162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55983.123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+  </si>
+  <si>
+    <t>备注3</t>
+  </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartNo001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartNo002</t>
+  </si>
+  <si>
+    <t>PartNo003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +250,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -286,22 +315,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -611,165 +646,216 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="11" width="17.625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="1"/>
+    <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
     <col min="14" max="14" width="17.875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="O9" s="6"/>
+      <c r="O9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>账册备案料号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -194,6 +194,26 @@
   </si>
   <si>
     <t>PartNo003</t>
+  </si>
+  <si>
+    <t>征免代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电商海关编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -643,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,11 +682,11 @@
     <col min="9" max="11" width="17.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="17.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="16" width="17.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -709,11 +729,17 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -757,10 +783,16 @@
         <v>40</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -804,10 +836,16 @@
         <v>41</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -851,11 +889,17 @@
         <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="O9" s="2"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>账册备案料号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -200,19 +200,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电商海关编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234567890</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -682,11 +674,11 @@
     <col min="9" max="11" width="17.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="16" width="17.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="14" max="15" width="17.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -708,10 +700,10 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -732,14 +724,11 @@
       <c r="O1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -786,13 +775,10 @@
         <v>48</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -836,16 +822,13 @@
         <v>41</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -889,17 +872,14 @@
         <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q9" s="2"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>账册备案料号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -205,6 +205,22 @@
   </si>
   <si>
     <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -348,6 +364,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -655,231 +674,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="11" width="17.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="15" width="17.875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
+    <col min="10" max="12" width="17.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="16" width="17.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="P9" s="2"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>账册备案料号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -205,22 +205,6 @@
   </si>
   <si>
     <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -364,9 +348,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -674,244 +655,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
-    <col min="10" max="12" width="17.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="16" width="17.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="11" width="17.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="15" width="17.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="K1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q9" s="2"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>账册备案料号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -205,6 +205,22 @@
   </si>
   <si>
     <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -348,6 +364,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -655,231 +674,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="11" width="17.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="15" width="17.875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
+    <col min="10" max="12" width="17.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="16" width="17.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="P9" s="2"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model/跨境电子进口核注清单表体模板.xlsx
+++ b/model/跨境电子进口核注清单表体模板.xlsx
@@ -4,17 +4,467 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="12015"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="24120" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+为对应账册料号，必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最大长度</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>字符</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最大长度</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>512</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>字符</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最大长度</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>512</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>字符</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最大长度</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>19</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>字符</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+申报数量的对应单位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+法定计量单位对应数量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+海关规定计量单位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第二法定单位填写时为必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+选填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+小数点后最多保留两位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写商品币制</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写原产国代码</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写征免代码</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>账册备案料号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -28,18 +478,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>商品规格型号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>计量单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>法定计量单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>法定数量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -48,179 +486,142 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第二法定计量单位</t>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101210010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101210090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101290010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55983.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65698.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45986.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品总价</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>总价</t>
+    <t>征免方式代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原产国(地区)代码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
+    <t>规格型号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
+    <t>法定单位</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原产国(地区)</t>
+    <t>LH2019001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LH2019002</t>
+  </si>
+  <si>
+    <t>LH2019003</t>
+  </si>
+  <si>
+    <t>物品01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品02</t>
+  </si>
+  <si>
+    <t>物品03</t>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二法定单位</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>毛重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101210010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101210090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101290010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般野马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好野马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好种马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65698.459862</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45986.598162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55983.123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注2</t>
-  </si>
-  <si>
-    <t>备注3</t>
-  </si>
-  <si>
-    <t>303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PartNo001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PartNo002</t>
-  </si>
-  <si>
-    <t>PartNo003</t>
-  </si>
-  <si>
-    <t>征免代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报单位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>币制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,21 +676,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -343,10 +756,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,13 +771,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,249 +1082,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
-    <col min="10" max="12" width="17.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="16" width="17.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>49</v>
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>